--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1794920.545009915</v>
+        <v>1895191.613148093</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954773</v>
+        <v>16614581.94299117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>318032.2590466437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5574959.513294075</v>
+        <v>6079501.133820157</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>242.3520972675585</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>313.442358342437</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>27.18442331492817</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +913,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>32.36127543482709</v>
+        <v>72.03840939089727</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1057,22 +1059,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>109.142675762685</v>
       </c>
       <c r="H7" t="n">
-        <v>82.62483121292166</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,13 +1141,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>73.37049486931492</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>67.37282263167542</v>
+        <v>148.7223419617676</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1348,10 +1350,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>287.9420426233989</v>
+        <v>382.1283421846404</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023059</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.8060335867361</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>33.39301028534182</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>61.23284287475848</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7884964950065</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2008,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>94.43123673215607</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>114.8528499950178</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149792</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2479,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>130.3463188443664</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>22.56919457453878</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247631</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2953,13 +2955,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>43.77283765622057</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>181.0735581446557</v>
       </c>
     </row>
     <row r="32">
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3247,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>107.3792913045956</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="U37" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3563,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430764</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3718,16 +3720,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>166.3197703738366</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366277</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>120.0455600701954</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>33.39301028534002</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>46.16917954999373</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,10 +3957,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>187.5234134555191</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>236.8165082185545</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>390.2344921595651</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4141,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.13954148002308</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>65.07405371603613</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.040072665448</v>
+        <v>1571.10956023096</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.938003889275</v>
+        <v>1537.007491454787</v>
       </c>
       <c r="D2" t="n">
-        <v>828.0282190637199</v>
+        <v>1292.207393204728</v>
       </c>
       <c r="E2" t="n">
-        <v>798.2938782624192</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F2" t="n">
-        <v>370.4264486716269</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612185</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>2035.921380153963</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>2670.060826431428</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.64701815018</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.544958769894</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.299239109952</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>404.0232146552985</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1064.863269197077</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>959.897665623735</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2461.942622985374</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>2183.509622238479</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1896.55411410891</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.527709695201</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1379.135955028614</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1151.716284342722</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2190.910269352854</v>
+        <v>1671.542826455969</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.767796536277</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2637.372669426552</v>
+        <v>2118.005226529668</v>
       </c>
       <c r="W5" t="n">
-        <v>2636.557618877989</v>
+        <v>2117.190175981105</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.455559497704</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y5" t="n">
-        <v>2617.209839837762</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>987.3566790731575</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>814.7949675563824</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>648.9169747579051</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E7" t="n">
-        <v>479.1589710086424</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F7" t="n">
-        <v>302.4519169703985</v>
+        <v>392.2084670965938</v>
       </c>
       <c r="G7" t="n">
-        <v>136.8606419962262</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4753,22 +4755,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2210.968635687902</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1924.013127558332</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1651.986723144624</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1406.594968478036</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1179.175297792145</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4802,16 +4804,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
         <v>1293.567921177998</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2595.949215452322</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2595.949215452322</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="9">
@@ -4890,19 +4892,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1034.921458359949</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C10" t="n">
-        <v>862.3597468431741</v>
+        <v>855.8710292644072</v>
       </c>
       <c r="D10" t="n">
-        <v>696.4817540446968</v>
+        <v>689.9930364659299</v>
       </c>
       <c r="E10" t="n">
-        <v>526.723750295434</v>
+        <v>520.2350327166671</v>
       </c>
       <c r="F10" t="n">
-        <v>350.0166962571902</v>
+        <v>343.5279786784233</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1699.551502431416</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X10" t="n">
-        <v>1454.159747764828</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y10" t="n">
-        <v>1226.740077078936</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>785.1194205777978</v>
+        <v>2477.95967990013</v>
       </c>
       <c r="C11" t="n">
-        <v>346.9769477612211</v>
+        <v>2039.817207083553</v>
       </c>
       <c r="D11" t="n">
-        <v>56.12639965677764</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677764</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677764</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677764</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677764</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K11" t="n">
-        <v>491.3810871096955</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L11" t="n">
-        <v>491.3810871096955</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>2527.894847537393</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2537.959253671968</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3518.138920242274</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4346.44879507567</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4892.947581034265</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.101645787321</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4978.449771971158</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4758.382544844197</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4499.160242161213</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>4136.54329209504</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183742</v>
+        <v>3731.687837506073</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>3312.545374085384</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.418991062706</v>
+        <v>2904.259250385037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056517</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J12" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="K12" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="L12" t="n">
-        <v>213.0649915360002</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="M12" t="n">
-        <v>213.0649915360002</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="N12" t="n">
-        <v>213.0649915360002</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="O12" t="n">
-        <v>907.6291872886235</v>
+        <v>1115.043642734048</v>
       </c>
       <c r="P12" t="n">
-        <v>1602.193383041247</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>951.7380699926775</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>779.1763584759025</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>613.2983656774252</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152468</v>
+        <v>443.5403619281625</v>
       </c>
       <c r="F13" t="n">
-        <v>59.29765367700296</v>
+        <v>266.8333078899187</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2699.662473775862</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2453.783027354317</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2175.350026607422</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1888.394518477852</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1616.368114064144</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1370.976359397557</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1143.556688711665</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>489.9011444984825</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C14" t="n">
-        <v>489.9011444984825</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D14" t="n">
-        <v>489.9011444984825</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677764</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677764</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677764</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677764</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>935.5923248739243</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>2010.652291126783</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2010.652291126783</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>3136.383274563231</v>
       </c>
       <c r="O14" t="n">
-        <v>1880.509478614942</v>
+        <v>3687.292984995331</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>4515.602859828727</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.101645787321</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.101645787321</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5028.371332367784</v>
       </c>
       <c r="T14" t="n">
-        <v>2586.252755711921</v>
+        <v>4808.304105240823</v>
       </c>
       <c r="U14" t="n">
-        <v>2327.030453028938</v>
+        <v>4549.081802557839</v>
       </c>
       <c r="V14" t="n">
-        <v>1964.413502962764</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W14" t="n">
-        <v>1559.558048373797</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X14" t="n">
-        <v>1140.415584953108</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y14" t="n">
-        <v>732.1294612527614</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J15" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="K15" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="L15" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="M15" t="n">
-        <v>776.7542685698585</v>
+        <v>413.4817447399089</v>
       </c>
       <c r="N15" t="n">
-        <v>1471.318464322482</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="O15" t="n">
-        <v>1471.318464322482</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="P15" t="n">
-        <v>1471.318464322482</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.4437844817653</v>
+        <v>1076.2735571683</v>
       </c>
       <c r="C16" t="n">
-        <v>730.8820729649902</v>
+        <v>903.7118456515253</v>
       </c>
       <c r="D16" t="n">
-        <v>565.0040801665129</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="E16" t="n">
-        <v>395.2460764172502</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="F16" t="n">
-        <v>218.5390223790064</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677764</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677764</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.368188264949</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.488741843405</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.05574109651</v>
+        <v>2012.930005653475</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.10023296694</v>
+        <v>2012.930005653475</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.073828553232</v>
+        <v>1740.903601239767</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.682073886644</v>
+        <v>1495.511846573179</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.262403200752</v>
+        <v>1268.092175887288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>634.526213836947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>634.526213836947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>634.526213836947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>634.526213836947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937674</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769924</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D19" t="n">
-        <v>451.8971520785151</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E19" t="n">
-        <v>356.5120644702766</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>218.2738200637269</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176952</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008512</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878942</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465234</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798646</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127546</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="20">
@@ -5738,46 +5740,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6075,10 +6077,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>462.4859121333726</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1026.672561814142</v>
       </c>
     </row>
     <row r="32">
@@ -6704,19 +6706,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>936.6111322289576</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
         <v>793.2056155771595</v>
@@ -6935,43 +6937,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>475.2748675296854</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257732</v>
@@ -6993,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7172,46 +7174,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>502.6211945723451</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1336.971486530523</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7230,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7324,7 +7326,7 @@
         <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,25 +7356,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y40" t="n">
         <v>1373.137619601648</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1332.524598105976</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C41" t="n">
-        <v>894.3821252893995</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D41" t="n">
-        <v>773.1239838043537</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E41" t="n">
-        <v>773.1239838043537</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F41" t="n">
-        <v>345.2565542135613</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135613</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677762</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="K41" t="n">
-        <v>491.3810871096955</v>
+        <v>935.5923248739243</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862318</v>
+        <v>1958.727056194114</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862318</v>
+        <v>1958.727056194114</v>
       </c>
       <c r="N41" t="n">
-        <v>1880.509478614941</v>
+        <v>3084.458039630561</v>
       </c>
       <c r="O41" t="n">
-        <v>2575.073674367564</v>
+        <v>4064.637706200867</v>
       </c>
       <c r="P41" t="n">
-        <v>2575.073674367564</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5028.371332367784</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4808.304105240823</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.25275571192</v>
+        <v>4549.081802557839</v>
       </c>
       <c r="V41" t="n">
-        <v>2586.25275571192</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W41" t="n">
-        <v>2586.25275571192</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X41" t="n">
-        <v>2167.110292291231</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y41" t="n">
-        <v>1758.824168590884</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677762</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J42" t="n">
-        <v>380.68472462299</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K42" t="n">
-        <v>380.68472462299</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L42" t="n">
-        <v>1075.248920375613</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.248920375613</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.248920375613</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O42" t="n">
-        <v>1178.627222503511</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P42" t="n">
-        <v>1178.627222503511</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.22882019347</v>
+        <v>1180.300193527628</v>
       </c>
       <c r="C43" t="n">
-        <v>843.6671086766952</v>
+        <v>1007.738482010853</v>
       </c>
       <c r="D43" t="n">
-        <v>677.7891158782179</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="E43" t="n">
-        <v>508.0311121289552</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="F43" t="n">
-        <v>331.3240580907113</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2558.660274116543</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2312.780827694998</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2034.347826948103</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>2034.347826948103</v>
       </c>
       <c r="W43" t="n">
-        <v>1680.858864264937</v>
+        <v>1844.930237599094</v>
       </c>
       <c r="X43" t="n">
-        <v>1435.467109598349</v>
+        <v>1599.538482932507</v>
       </c>
       <c r="Y43" t="n">
-        <v>1208.047438912457</v>
+        <v>1372.118812246615</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.941083880822</v>
+        <v>2477.959679900128</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.941083880822</v>
+        <v>2039.817207083551</v>
       </c>
       <c r="D44" t="n">
-        <v>779.0312990552661</v>
+        <v>1603.907422257996</v>
       </c>
       <c r="E44" t="n">
-        <v>345.2565542135613</v>
+        <v>1170.132677416291</v>
       </c>
       <c r="F44" t="n">
-        <v>345.2565542135613</v>
+        <v>742.2652478254986</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>340.8674164487625</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>299.811035083774</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862318</v>
+        <v>1134.161327041952</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862318</v>
+        <v>2209.221293294811</v>
       </c>
       <c r="M44" t="n">
-        <v>1880.509478614941</v>
+        <v>3366.269128505362</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.073674367564</v>
+        <v>3366.269128505362</v>
       </c>
       <c r="O44" t="n">
-        <v>2575.073674367564</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="P44" t="n">
-        <v>2575.073674367564</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838881</v>
+        <v>4758.382544844195</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838881</v>
+        <v>4499.160242161211</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.703032772708</v>
+        <v>4136.543292095038</v>
       </c>
       <c r="W44" t="n">
-        <v>2443.703032772708</v>
+        <v>3731.687837506071</v>
       </c>
       <c r="X44" t="n">
-        <v>2049.526778066076</v>
+        <v>3312.545374085382</v>
       </c>
       <c r="Y44" t="n">
-        <v>1641.240654365729</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="L45" t="n">
-        <v>1087.481917853825</v>
+        <v>1055.78508172685</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.481917853825</v>
+        <v>1055.78508172685</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.481917853825</v>
+        <v>1055.78508172685</v>
       </c>
       <c r="O45" t="n">
-        <v>1087.481917853825</v>
+        <v>1055.78508172685</v>
       </c>
       <c r="P45" t="n">
-        <v>1178.627222503511</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="Q45" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>1010.542189778365</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>837.98047826159</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="F46" t="n">
-        <v>59.29765367700296</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677762</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2012.930005653475</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1947.19863826354</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1675.172233849831</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1429.780479183244</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1202.360808497352</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>640.5448952297625</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8301,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>540.0049805212334</v>
+        <v>658.3613220306675</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>10.16606680260065</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8772,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>132.1968875947121</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097205</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097205</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>556.4744549819193</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629751</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>701.5799957097205</v>
+        <v>315.3936483072349</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097205</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.1968875947121</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,16 +9883,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>387.2095039972201</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10352,10 +10354,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7389601124028</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>376.7818457160665</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>404.4043982844096</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,13 +10831,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>1033.469425575949</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5821297690068</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>104.422527401917</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>200.5747496646744</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.71943809925233</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>92.06596429261208</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>143.608644353901</v>
+        <v>49.42234479265954</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>182.2305411933226</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>49.42234479265954</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.9863699957341</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.146865729424121</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>73.62918697961405</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>23.65030257151146</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>33.58904338006423</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>141.6500182959537</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>44.07191583437705</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="U37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>311.5051269071046</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>49.42234479266134</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>117.7661826744369</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>81.78272691405232</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>49.42234479266139</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>24.71654662691731</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>219.0118993322377</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>526592.8479096574</v>
+        <v>521604.2470865904</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349068.2552667095</v>
+        <v>523454.4388187258</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349068.2552667095</v>
+        <v>523454.4388187258</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>527392.4512899049</v>
+        <v>527392.4512899048</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>527392.4512899047</v>
+        <v>527392.4512899048</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349068.2552667094</v>
+        <v>523454.4388187255</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349068.2552667094</v>
+        <v>523454.4388187256</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>428917.8559123269</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123267</v>
       </c>
       <c r="D2" t="n">
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>278971.3917505661</v>
+        <v>418338.8523934854</v>
       </c>
       <c r="F2" t="n">
-        <v>278971.391750566</v>
+        <v>418338.8523934853</v>
       </c>
       <c r="G2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26347,13 +26349,13 @@
         <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>278971.391750566</v>
+        <v>418338.8523934852</v>
       </c>
       <c r="P2" t="n">
-        <v>278971.391750566</v>
+        <v>418338.8523934852</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78577.04195825371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045622</v>
+        <v>178552.690940411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>3490.497673803449</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62596.87743601672</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340775</v>
+        <v>149026.5350866914</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130757.3002320199</v>
+        <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
         <v>130757.3002320199</v>
@@ -26424,10 +26426,10 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18323.4193897997</v>
+        <v>27477.36314950578</v>
       </c>
       <c r="F4" t="n">
-        <v>18323.4193897997</v>
+        <v>27477.36314950578</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18323.4193897997</v>
+        <v>27477.36314950577</v>
       </c>
       <c r="P4" t="n">
-        <v>18323.4193897997</v>
+        <v>27477.36314950578</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>76943.94501596726</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>76943.94501596726</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248.3325345044286</v>
+        <v>45869.38065493253</v>
       </c>
       <c r="C6" t="n">
+        <v>145370.9891602955</v>
+      </c>
+      <c r="D6" t="n">
         <v>223948.0311185493</v>
       </c>
-      <c r="D6" t="n">
-        <v>223948.0311185492</v>
-      </c>
       <c r="E6" t="n">
-        <v>207820.9120211591</v>
+        <v>135364.8532876013</v>
       </c>
       <c r="F6" t="n">
-        <v>217991.9086216153</v>
+        <v>313917.5442280123</v>
       </c>
       <c r="G6" t="n">
-        <v>158024.2730077775</v>
+        <v>312593.2522800832</v>
       </c>
       <c r="H6" t="n">
-        <v>316083.7499538867</v>
+        <v>316083.7499538868</v>
       </c>
       <c r="I6" t="n">
         <v>316083.7499538867</v>
       </c>
       <c r="J6" t="n">
-        <v>141432.4012361805</v>
+        <v>205069.2846088965</v>
       </c>
       <c r="K6" t="n">
-        <v>316083.7499538867</v>
+        <v>253486.8725178699</v>
       </c>
       <c r="L6" t="n">
         <v>316083.7499538867</v>
       </c>
       <c r="M6" t="n">
-        <v>307594.668250546</v>
+        <v>167057.2148671954</v>
       </c>
       <c r="N6" t="n">
-        <v>316083.7499538868</v>
+        <v>316083.7499538867</v>
       </c>
       <c r="O6" t="n">
-        <v>217991.9086216153</v>
+        <v>313917.5442280122</v>
       </c>
       <c r="P6" t="n">
-        <v>217991.9086216153</v>
+        <v>313917.5442280122</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097205</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1265.52541144683</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186355</v>
+        <v>598.0102048389734</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750248</v>
+        <v>12.73509193791506</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186343</v>
+        <v>598.0102048389729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186355</v>
+        <v>598.0102048389734</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750248</v>
+        <v>12.73509193791506</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>189.1985897097414</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>83.94149472053175</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>216.2362286424011</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>326.6295051306847</v>
+        <v>286.9523711746144</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="H7" t="n">
-        <v>55.87832135360756</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27904,16 +27906,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>144.4960599863768</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>96.56253959275519</v>
+        <v>15.21302026266304</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>640.5448952297625</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35021,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>540.0049805212334</v>
+        <v>658.3613220306675</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>10.16606680260065</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>132.1968875947121</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097205</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097205</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>556.4744549819193</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629751</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>701.5799957097205</v>
+        <v>315.3936483072349</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097205</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.1968875947121</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>387.2095039972201</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37072,10 +37074,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7389601124028</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,10 +37086,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>376.7818457160665</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>404.4043982844096</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>1033.469425575949</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5821297690068</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>104.422527401917</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>200.5747496646744</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.71943809925233</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>964.1848977889939</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>92.06596429261208</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1895191.613148093</v>
+        <v>1894657.126943853</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318032.2590466437</v>
+        <v>318032.2590466442</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6079501.133820157</v>
+        <v>6079501.133820156</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>332.4291174559667</v>
       </c>
       <c r="D2" t="n">
-        <v>242.3520972675585</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>25.30817366908154</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>55.95003072971125</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>72.03840939089727</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G7" t="n">
-        <v>109.142675762685</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1144,13 +1144,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>73.37049486931492</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>150.3256848869542</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>148.7223419617676</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>382.1283421846404</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>236.8165082185545</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767003</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.39301028534182</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>168.8568315421617</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>86.20228614855905</v>
       </c>
       <c r="D16" t="n">
-        <v>61.23284287475848</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>114.8528499950178</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>59.41244209702465</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3463188443664</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>56.72042565247631</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>23.21215624113652</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.0735581446557</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.6544692828921</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430764</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>35.5167825707944</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3720,16 +3720,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.2146311366277</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>374.1664105022238</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>33.39301028534002</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3957,10 +3957,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>187.5234134555191</v>
+        <v>46.16917954999384</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>236.8165082185545</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>33.39301028534092</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4188,13 +4188,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>20.56754178381428</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>65.07405371603613</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.10956023096</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>1537.007491454787</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>1292.207393204728</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.368726675464</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>236.2145344268032</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0331531457903</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.542826455969</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.400353639393</v>
+        <v>1381.415549500749</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.530972854241</v>
+        <v>945.5057646751934</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>511.7310198334886</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2118.005226529668</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2117.190175981105</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>2102.08811660082</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2097.842396940877</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
         <v>1058.729261281022</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>568.9155211348376</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>568.9155211348376</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>392.2084670965938</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4725,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1382.829461272046</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554692</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>508.7772036299137</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4810,22 +4810,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2595.949215452322</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2595.949215452322</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2233.332265386148</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2232.517214837585</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.374751416896</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.08862771655</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1028.432740781182</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>855.8710292644072</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>689.9930364659299</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>520.2350327166671</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>343.5279786784233</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1693.062784852649</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1447.671030186061</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1220.251359500169</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2477.95967990013</v>
+        <v>2477.959679900128</v>
       </c>
       <c r="C11" t="n">
-        <v>2039.817207083553</v>
+        <v>2039.817207083551</v>
       </c>
       <c r="D11" t="n">
-        <v>1653.828982654623</v>
+        <v>1603.907422257996</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.054237812918</v>
+        <v>1170.132677416291</v>
       </c>
       <c r="F11" t="n">
-        <v>792.1868082221263</v>
+        <v>742.2652478254986</v>
       </c>
       <c r="G11" t="n">
-        <v>390.7889768453902</v>
+        <v>340.8674164487625</v>
       </c>
       <c r="H11" t="n">
         <v>101.6588222886064</v>
@@ -5047,46 +5047,46 @@
         <v>1370.847012326842</v>
       </c>
       <c r="L11" t="n">
-        <v>1370.847012326842</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M11" t="n">
-        <v>2527.894847537393</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N11" t="n">
-        <v>2537.959253671968</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="O11" t="n">
-        <v>3518.138920242274</v>
+        <v>3518.138920242272</v>
       </c>
       <c r="P11" t="n">
-        <v>4346.44879507567</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="Q11" t="n">
-        <v>4892.947581034265</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R11" t="n">
-        <v>5062.101645787321</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S11" t="n">
-        <v>4978.449771971158</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T11" t="n">
-        <v>4758.382544844197</v>
+        <v>4758.382544844195</v>
       </c>
       <c r="U11" t="n">
-        <v>4499.160242161213</v>
+        <v>4499.160242161211</v>
       </c>
       <c r="V11" t="n">
-        <v>4136.54329209504</v>
+        <v>4136.543292095038</v>
       </c>
       <c r="W11" t="n">
-        <v>3731.687837506073</v>
+        <v>3731.687837506071</v>
       </c>
       <c r="X11" t="n">
-        <v>3312.545374085384</v>
+        <v>3312.545374085382</v>
       </c>
       <c r="Y11" t="n">
-        <v>2904.259250385037</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>101.2420329157464</v>
       </c>
       <c r="I12" t="n">
-        <v>101.2420329157464</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J12" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K12" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="L12" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="M12" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="N12" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="O12" t="n">
-        <v>1115.043642734048</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P12" t="n">
-        <v>1764.481794394555</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q12" t="n">
-        <v>1764.481794394555</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R12" t="n">
         <v>1764.481794394555</v>
@@ -5226,10 +5226,10 @@
         <v>2717.901642818546</v>
       </c>
       <c r="S13" t="n">
-        <v>2699.662473775862</v>
+        <v>2558.660274116543</v>
       </c>
       <c r="T13" t="n">
-        <v>2453.783027354317</v>
+        <v>2312.780827694998</v>
       </c>
       <c r="U13" t="n">
         <v>2175.350026607422</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2527.881240296756</v>
+        <v>2527.464450923896</v>
       </c>
       <c r="C14" t="n">
-        <v>2089.738767480179</v>
+        <v>2089.321978107319</v>
       </c>
       <c r="D14" t="n">
-        <v>1653.828982654623</v>
+        <v>1653.412193281763</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.054237812918</v>
+        <v>1219.637448440059</v>
       </c>
       <c r="F14" t="n">
-        <v>792.1868082221263</v>
+        <v>791.7700188492663</v>
       </c>
       <c r="G14" t="n">
-        <v>390.7889768453902</v>
+        <v>390.3721874725301</v>
       </c>
       <c r="H14" t="n">
-        <v>101.6588222886064</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I14" t="n">
         <v>101.2420329157464</v>
       </c>
       <c r="J14" t="n">
-        <v>101.2420329157464</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K14" t="n">
-        <v>935.5923248739243</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L14" t="n">
-        <v>2010.652291126783</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M14" t="n">
-        <v>2010.652291126783</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N14" t="n">
-        <v>3136.383274563231</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="O14" t="n">
-        <v>3687.292984995331</v>
+        <v>3518.138920242272</v>
       </c>
       <c r="P14" t="n">
-        <v>4515.602859828727</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="Q14" t="n">
-        <v>5062.101645787321</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R14" t="n">
-        <v>5062.101645787321</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S14" t="n">
-        <v>5028.371332367784</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T14" t="n">
-        <v>4808.304105240823</v>
+        <v>4807.887315867963</v>
       </c>
       <c r="U14" t="n">
-        <v>4549.081802557839</v>
+        <v>4548.665013184979</v>
       </c>
       <c r="V14" t="n">
-        <v>4186.464852491666</v>
+        <v>4186.048063118806</v>
       </c>
       <c r="W14" t="n">
-        <v>3781.609397902699</v>
+        <v>3781.192608529839</v>
       </c>
       <c r="X14" t="n">
-        <v>3362.46693448201</v>
+        <v>3362.05014510915</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.180810781663</v>
+        <v>2953.764021408803</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>101.2420329157464</v>
       </c>
       <c r="I15" t="n">
-        <v>101.2420329157464</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J15" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K15" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="L15" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="M15" t="n">
-        <v>413.4817447399089</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.309016300215</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="O15" t="n">
-        <v>1647.309016300215</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="P15" t="n">
-        <v>1647.309016300215</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q15" t="n">
         <v>1647.309016300215</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1076.2735571683</v>
+        <v>789.3180490387308</v>
       </c>
       <c r="C16" t="n">
-        <v>903.7118456515253</v>
+        <v>702.245032727055</v>
       </c>
       <c r="D16" t="n">
-        <v>841.8604892123753</v>
+        <v>536.3670399285777</v>
       </c>
       <c r="E16" t="n">
-        <v>672.1024854631127</v>
+        <v>366.6090361793149</v>
       </c>
       <c r="F16" t="n">
-        <v>495.3954314248689</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="G16" t="n">
-        <v>329.8041564506966</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="H16" t="n">
         <v>189.9019821410711</v>
@@ -5472,16 +5472,16 @@
         <v>2012.930005653475</v>
       </c>
       <c r="V16" t="n">
-        <v>2012.930005653475</v>
+        <v>1725.974497523906</v>
       </c>
       <c r="W16" t="n">
-        <v>1740.903601239767</v>
+        <v>1453.948093110197</v>
       </c>
       <c r="X16" t="n">
-        <v>1495.511846573179</v>
+        <v>1208.55633844361</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.092175887288</v>
+        <v>981.136667757718</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1068.769857140658</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>896.2081456238831</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>730.3301528254058</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>560.572149076143</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>383.8650950378992</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>218.2738200637269</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5706,19 +5706,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V19" t="n">
-        <v>2005.426305625833</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W19" t="n">
-        <v>1733.399901212125</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X19" t="n">
-        <v>1488.008146545537</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y19" t="n">
-        <v>1260.588475859645</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,28 +5758,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.77365348828</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698831</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D25" t="n">
-        <v>639.1929661716164</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E25" t="n">
-        <v>639.1929661716164</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F25" t="n">
-        <v>462.4859121333726</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>269.4112304877946</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1103.761522445973</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698832</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6420,16 +6420,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="29">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>834.8539430951545</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>662.2922315783794</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1026.672561814142</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6919,70 +6919,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423626</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6995,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2411.337553830592</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2132.904553083697</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.949044954127</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>226.7963274464017</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.384721759858</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.881240296756</v>
+        <v>2477.959679900129</v>
       </c>
       <c r="C41" t="n">
-        <v>2089.738767480179</v>
+        <v>2039.817207083552</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.828982654623</v>
+        <v>1603.907422257997</v>
       </c>
       <c r="E41" t="n">
-        <v>1220.054237812918</v>
+        <v>1170.132677416292</v>
       </c>
       <c r="F41" t="n">
         <v>792.1868082221263</v>
@@ -7411,52 +7411,52 @@
         <v>101.2420329157464</v>
       </c>
       <c r="J41" t="n">
-        <v>101.2420329157464</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K41" t="n">
-        <v>935.5923248739243</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L41" t="n">
-        <v>1958.727056194114</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M41" t="n">
-        <v>1958.727056194114</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N41" t="n">
-        <v>3084.458039630561</v>
+        <v>2537.959253671967</v>
       </c>
       <c r="O41" t="n">
-        <v>4064.637706200867</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P41" t="n">
-        <v>4892.947581034263</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q41" t="n">
-        <v>4892.947581034263</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R41" t="n">
-        <v>5062.101645787319</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S41" t="n">
-        <v>5028.371332367784</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T41" t="n">
-        <v>4808.304105240823</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U41" t="n">
-        <v>4549.081802557839</v>
+        <v>4499.160242161212</v>
       </c>
       <c r="V41" t="n">
-        <v>4186.464852491666</v>
+        <v>4136.543292095039</v>
       </c>
       <c r="W41" t="n">
-        <v>3781.609397902699</v>
+        <v>3731.687837506072</v>
       </c>
       <c r="X41" t="n">
-        <v>3362.46693448201</v>
+        <v>3312.545374085383</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.180810781663</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1180.300193527628</v>
+        <v>1014.708918553456</v>
       </c>
       <c r="C43" t="n">
-        <v>1007.738482010853</v>
+        <v>842.1472070366805</v>
       </c>
       <c r="D43" t="n">
-        <v>841.8604892123753</v>
+        <v>676.2692142382032</v>
       </c>
       <c r="E43" t="n">
-        <v>672.1024854631127</v>
+        <v>506.5112104889404</v>
       </c>
       <c r="F43" t="n">
-        <v>495.3954314248689</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="G43" t="n">
         <v>329.8041564506966</v>
@@ -7593,28 +7593,28 @@
         <v>2717.901642818546</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.901642818546</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S43" t="n">
-        <v>2558.660274116543</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.780827694998</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="U43" t="n">
-        <v>2034.347826948103</v>
+        <v>2012.930005653475</v>
       </c>
       <c r="V43" t="n">
-        <v>2034.347826948103</v>
+        <v>1725.974497523906</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.930237599094</v>
+        <v>1679.338962624922</v>
       </c>
       <c r="X43" t="n">
-        <v>1599.538482932507</v>
+        <v>1433.947207958335</v>
       </c>
       <c r="Y43" t="n">
-        <v>1372.118812246615</v>
+        <v>1206.527537272443</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2477.959679900128</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C44" t="n">
-        <v>2039.817207083551</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D44" t="n">
-        <v>1603.907422257996</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E44" t="n">
-        <v>1170.132677416291</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F44" t="n">
-        <v>742.2652478254986</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G44" t="n">
-        <v>340.8674164487625</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H44" t="n">
         <v>101.6588222886064</v>
@@ -7648,52 +7648,52 @@
         <v>101.2420329157464</v>
       </c>
       <c r="J44" t="n">
-        <v>299.811035083774</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K44" t="n">
-        <v>1134.161327041952</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L44" t="n">
-        <v>2209.221293294811</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M44" t="n">
-        <v>3366.269128505362</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N44" t="n">
-        <v>3366.269128505362</v>
+        <v>2537.959253671967</v>
       </c>
       <c r="O44" t="n">
-        <v>4346.448795075668</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P44" t="n">
-        <v>4346.448795075668</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q44" t="n">
-        <v>4892.947581034263</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R44" t="n">
-        <v>5062.101645787319</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S44" t="n">
-        <v>4978.449771971156</v>
+        <v>5028.371332367784</v>
       </c>
       <c r="T44" t="n">
-        <v>4758.382544844195</v>
+        <v>4808.304105240823</v>
       </c>
       <c r="U44" t="n">
-        <v>4499.160242161211</v>
+        <v>4549.081802557839</v>
       </c>
       <c r="V44" t="n">
-        <v>4136.543292095038</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W44" t="n">
-        <v>3731.687837506071</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X44" t="n">
-        <v>3312.545374085382</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y44" t="n">
-        <v>2904.259250385036</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>101.2420329157464</v>
       </c>
       <c r="I45" t="n">
-        <v>101.2420329157464</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J45" t="n">
-        <v>101.2420329157464</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K45" t="n">
-        <v>101.2420329157464</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L45" t="n">
-        <v>1055.78508172685</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M45" t="n">
-        <v>1055.78508172685</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N45" t="n">
-        <v>1055.78508172685</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O45" t="n">
-        <v>1055.78508172685</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P45" t="n">
-        <v>1764.481794394555</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q45" t="n">
-        <v>1764.481794394555</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R45" t="n">
         <v>1764.481794394555</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1010.542189778365</v>
+        <v>1014.42220072915</v>
       </c>
       <c r="C46" t="n">
-        <v>837.98047826159</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="D46" t="n">
-        <v>672.1024854631127</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="E46" t="n">
         <v>672.1024854631127</v>
@@ -7836,22 +7836,22 @@
         <v>2537.242452821915</v>
       </c>
       <c r="T46" t="n">
-        <v>2291.36300640037</v>
+        <v>2516.467158090789</v>
       </c>
       <c r="U46" t="n">
-        <v>2012.930005653475</v>
+        <v>2238.034157343895</v>
       </c>
       <c r="V46" t="n">
-        <v>1947.19863826354</v>
+        <v>1951.078649214325</v>
       </c>
       <c r="W46" t="n">
-        <v>1675.172233849831</v>
+        <v>1679.052244800617</v>
       </c>
       <c r="X46" t="n">
-        <v>1429.780479183244</v>
+        <v>1433.660490134029</v>
       </c>
       <c r="Y46" t="n">
-        <v>1202.360808497352</v>
+        <v>1206.240819448137</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8294,19 +8294,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>10.16606680260065</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O14" t="n">
-        <v>556.4744549819193</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>315.3936483072349</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9895,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1033.469425575949</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11080,7 +11080,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>200.5747496646744</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,16 +11305,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>49.42234479265954</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.42234479266139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.42234479265954</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>49.00972331353006</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>84.63380825304826</v>
       </c>
       <c r="D16" t="n">
-        <v>102.9863699957341</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23.65030257151146</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>216.236228642401</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33.58904338006423</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>227.3655273957975</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>201.9333177378963</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.07191583437705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.9308428424051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>49.42234479266057</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>49.42234479266134</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>81.78272691405232</v>
+        <v>223.1369608195776</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>49.42234479266139</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>49.42234479266044</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.853110173515</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>219.0118993322377</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523454.4388187258</v>
+        <v>523454.4388187255</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523454.4388187258</v>
+        <v>523454.4388187255</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>527392.4512899048</v>
+        <v>527392.4512899049</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527392.4512899048</v>
+        <v>527392.4512899047</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>523454.4388187255</v>
+        <v>523454.4388187256</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123267</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>418338.8523934854</v>
+        <v>418338.8523934851</v>
       </c>
       <c r="F2" t="n">
-        <v>418338.8523934853</v>
+        <v>418338.8523934851</v>
       </c>
       <c r="G2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26349,13 +26349,13 @@
         <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="O2" t="n">
-        <v>418338.8523934852</v>
+        <v>418338.8523934853</v>
       </c>
       <c r="P2" t="n">
-        <v>418338.8523934852</v>
+        <v>418338.8523934853</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>178552.690940411</v>
+        <v>178552.6909404109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3490.497673803449</v>
+        <v>3490.497673803526</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>27477.36314950578</v>
       </c>
       <c r="F4" t="n">
-        <v>27477.36314950578</v>
+        <v>27477.36314950577</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26456,7 +26456,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27477.36314950577</v>
+        <v>27477.36314950578</v>
       </c>
       <c r="P4" t="n">
         <v>27477.36314950578</v>
@@ -26478,16 +26478,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>76943.94501596727</v>
+        <v>76943.94501596726</v>
       </c>
       <c r="F5" t="n">
-        <v>76943.94501596727</v>
+        <v>76943.94501596726</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76943.94501596726</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="P5" t="n">
-        <v>76943.94501596726</v>
+        <v>76943.94501596727</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45869.38065493253</v>
+        <v>45869.38065493241</v>
       </c>
       <c r="C6" t="n">
         <v>145370.9891602955</v>
       </c>
       <c r="D6" t="n">
-        <v>223948.0311185493</v>
+        <v>223948.0311185492</v>
       </c>
       <c r="E6" t="n">
-        <v>135364.8532876013</v>
+        <v>135331.7939016049</v>
       </c>
       <c r="F6" t="n">
-        <v>313917.5442280123</v>
+        <v>313884.4848420158</v>
       </c>
       <c r="G6" t="n">
-        <v>312593.2522800832</v>
+        <v>312570.0279407005</v>
       </c>
       <c r="H6" t="n">
-        <v>316083.7499538868</v>
+        <v>316060.5256145041</v>
       </c>
       <c r="I6" t="n">
-        <v>316083.7499538867</v>
+        <v>316060.525614504</v>
       </c>
       <c r="J6" t="n">
-        <v>205069.2846088965</v>
+        <v>205046.0602695139</v>
       </c>
       <c r="K6" t="n">
-        <v>253486.8725178699</v>
+        <v>253463.6481784874</v>
       </c>
       <c r="L6" t="n">
-        <v>316083.7499538867</v>
+        <v>316060.5256145041</v>
       </c>
       <c r="M6" t="n">
-        <v>167057.2148671954</v>
+        <v>167033.9905278126</v>
       </c>
       <c r="N6" t="n">
-        <v>316083.7499538867</v>
+        <v>316060.5256145039</v>
       </c>
       <c r="O6" t="n">
-        <v>313917.5442280122</v>
+        <v>313884.4848420158</v>
       </c>
       <c r="P6" t="n">
-        <v>313917.5442280122</v>
+        <v>313884.484842016</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>598.0102048389734</v>
+        <v>598.0102048389729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.73509193791506</v>
+        <v>12.73509193791534</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>598.0102048389734</v>
+        <v>598.0102048389729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.73509193791506</v>
+        <v>12.73509193791534</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>101.3319306324442</v>
       </c>
       <c r="D2" t="n">
-        <v>189.1985897097414</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>145.5279207325258</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27548,7 +27548,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>367.638724565173</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>286.9523711746144</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G7" t="n">
-        <v>54.79268646174563</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>144.4960599863768</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>253.8775775763889</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15.21302026266304</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35014,19 +35014,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850285</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>10.16606680260065</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35658,10 +35658,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O14" t="n">
-        <v>556.4744549819193</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>315.3936483072349</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36378,10 +36378,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36615,10 +36615,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L41" t="n">
-        <v>1033.469425575949</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37800,7 +37800,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>200.5747496646744</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
